--- a/SAO_GABRIEL.xlsx
+++ b/SAO_GABRIEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E80F57-F286-414F-AA2B-E54B04B10062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E65E867-C116-434A-9D60-B6B1F9DDCDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1231,7 +1231,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B5B29ED2-54B6-4EA1-B19B-910C7CDF9F8A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6FE5F29A-E1D3-45F9-B9C3-CD176EE90B4B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1261,10 +1261,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804CC63F-88B3-452E-A8E0-C757B27CAB11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20DFE5F-AFC0-4FB4-8712-9908230EF0D4}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,7 +1302,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C6F377-C05D-44EC-84C9-6596A0F38268}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965B2F00-B2E1-4B3C-912A-FC4D7DD4FFE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532BCAE3-69DD-44CD-8A03-5C2AD995C043}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556A2FDE-89A6-4C25-BEAD-B02EE749EB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A704D61-432C-A8E5-69AC-9B2A75F455B9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708988D1-52A3-4041-AFC0-A8259FCF0D2B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1433,7 +1433,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE46A193-F4E2-C4C7-C371-E84182D6A4BF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5875B91B-0DAA-EEB3-0952-FADA189A9B37}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B8F989-C691-2AC2-C27E-61F30276C189}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF5EF43-9F52-E585-EDAE-A19A1BA37976}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1483,7 +1483,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866CCE3F-2DFE-44F9-B9B0-39E29E91DD92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64390B54-35F8-776C-9C2E-DF4260FF5840}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1514,7 +1514,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B4600F-5DD9-781D-4493-18D51DE5A61D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2634DA60-DCEB-53FB-82E8-802F189C3F6E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1557,7 +1557,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9D3014-2451-46DD-8A1C-C43FD112FEF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117EE01A-103A-4709-BB45-2943246206EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1595,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13A19BB-28DF-4DE6-9526-7460A4171918}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90649E02-9736-418F-A390-6456BFFDEBBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1638,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A82EA8C-724C-4847-A325-8696C3BDB315}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250E0A4B-4D79-461E-A020-E9918D9E581E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D832F9-2F49-4D5D-9379-03A656A6EFC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358E7E50-DC7B-4841-8C78-0CA7B24A27E8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SAO_GABRIEL.xlsx
+++ b/SAO_GABRIEL.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E65E867-C116-434A-9D60-B6B1F9DDCDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{352D00C7-AD9F-4514-8981-C66AFF956983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="308">
   <si>
     <t>COMARCA</t>
   </si>
@@ -950,15 +949,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SÃO GABRIEL</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,27 +1201,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6FE5F29A-E1D3-45F9-B9C3-CD176EE90B4B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F9A69D77-C347-4604-B93A-3EB558E23E00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1261,10 +1236,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20DFE5F-AFC0-4FB4-8712-9908230EF0D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44D470A-A815-4D2B-A01C-2CA6EB3A2273}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,7 +1277,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965B2F00-B2E1-4B3C-912A-FC4D7DD4FFE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5F93F9-1B0C-4730-8BC7-CAE6F2BEED45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1340,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{556A2FDE-89A6-4C25-BEAD-B02EE749EB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3C8C39-4209-456E-B062-2B66F8BD1A24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1359,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708988D1-52A3-4041-AFC0-A8259FCF0D2B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C6012D-2F31-3C74-6611-7857569693C8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1433,7 +1408,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5875B91B-0DAA-EEB3-0952-FADA189A9B37}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F36D76-43BC-9049-C807-35749FB16226}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1452,7 +1427,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF5EF43-9F52-E585-EDAE-A19A1BA37976}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E98374-D1C6-AFA9-2CF4-8919D7AB9607}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1483,7 +1458,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64390B54-35F8-776C-9C2E-DF4260FF5840}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E4B280-65FA-A84C-FFA5-18817B64CBD4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1514,7 +1489,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2634DA60-DCEB-53FB-82E8-802F189C3F6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8230222-0B52-FF1F-E459-3F8D601B886B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1557,7 +1532,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117EE01A-103A-4709-BB45-2943246206EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40BE11C-64F0-423B-9368-CB6E8C8DD5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1570,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90649E02-9736-418F-A390-6456BFFDEBBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A056916-9D01-45BB-BB4A-D4FD27F732FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1613,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{250E0A4B-4D79-461E-A020-E9918D9E581E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6CDD0C-4CD0-46B6-BC52-BDE251820660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358E7E50-DC7B-4841-8C78-0CA7B24A27E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193AFE35-2E00-49E2-9243-1904F2291C43}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1963,98 +1938,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5610,52 +5585,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="32">
-        <v>176</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.16386721333157E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SAO_GABRIEL.xlsx
+++ b/SAO_GABRIEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{352D00C7-AD9F-4514-8981-C66AFF956983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE35C00-0B14-4B41-8ADD-3AD3EEB06EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1206,7 +1206,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{F9A69D77-C347-4604-B93A-3EB558E23E00}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5E01B74D-8915-4195-97A2-654E7C4FC1BD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,10 +1236,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D44D470A-A815-4D2B-A01C-2CA6EB3A2273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6E0D78-C00A-4790-BCE3-296D7F4F0524}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1277,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5F93F9-1B0C-4730-8BC7-CAE6F2BEED45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9957D6E-C0E6-4C15-9866-633F0376BB2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1340,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3C8C39-4209-456E-B062-2B66F8BD1A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBB1148-5C11-4B94-A835-DD55D007D58B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1359,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C6012D-2F31-3C74-6611-7857569693C8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DED107C-158D-C7FB-114F-33098B5F0DF0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F36D76-43BC-9049-C807-35749FB16226}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286AE737-AE62-16B6-3887-5DEDE8516AB2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E98374-D1C6-AFA9-2CF4-8919D7AB9607}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D030EB-3068-C7E4-69FE-608A6943CF7F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1458,7 +1458,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E4B280-65FA-A84C-FFA5-18817B64CBD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D83C4CF-542A-E8A1-F24F-C07EC8C148B4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8230222-0B52-FF1F-E459-3F8D601B886B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2C7645-9355-4C81-C921-3A730F159922}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1532,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40BE11C-64F0-423B-9368-CB6E8C8DD5CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BEDA82-FCAE-45DF-8741-246B107DD52C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1570,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A056916-9D01-45BB-BB4A-D4FD27F732FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39615CD-8FBD-4213-AD19-CD9A3D1D1679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,50 +1595,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6CDD0C-4CD0-46B6-BC52-BDE251820660}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1926,7 +1882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193AFE35-2E00-49E2-9243-1904F2291C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E305451-E4C0-4ED9-9E62-7853756CC00A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
